--- a/public/assets/tempfiles/topicUpload.xlsx
+++ b/public/assets/tempfiles/topicUpload.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">paperCode</t>
   </si>
@@ -31,10 +31,25 @@
     <t xml:space="preserve">subTopic</t>
   </si>
   <si>
+    <t xml:space="preserve">questType</t>
+  </si>
+  <si>
     <t xml:space="preserve">questions</t>
   </si>
   <si>
     <t xml:space="preserve">marks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM2101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
   </si>
 </sst>
 </file>
@@ -130,13 +145,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -220,13 +239,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -244,34 +263,43 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>22601</v>
-      </c>
-      <c r="B2" s="2" t="n">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="n">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>22601</v>
-      </c>
-      <c r="B3" s="2" t="n">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="n">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>2</v>
       </c>
     </row>

--- a/public/assets/tempfiles/topicUpload.xlsx
+++ b/public/assets/tempfiles/topicUpload.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">paperCode</t>
   </si>
   <si>
+    <t xml:space="preserve">instCode</t>
+  </si>
+  <si>
     <t xml:space="preserve">topic</t>
   </si>
   <si>
@@ -40,24 +43,19 @@
     <t xml:space="preserve">marks</t>
   </si>
   <si>
-    <t xml:space="preserve">ET390</t>
+    <t xml:space="preserve">P2</t>
   </si>
   <si>
     <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM2101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -145,16 +143,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -239,68 +249,84 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.64"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="4" t="n">
+        <v>121212</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="n">
+      <c r="C2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="n">
+        <v>121213</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>2</v>
+      <c r="F3" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/tempfiles/topicUpload.xlsx
+++ b/public/assets/tempfiles/topicUpload.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t xml:space="preserve">paperCode</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">subTopic</t>
   </si>
   <si>
+    <t xml:space="preserve">questMode</t>
+  </si>
+  <si>
     <t xml:space="preserve">questType</t>
   </si>
   <si>
@@ -43,10 +46,19 @@
     <t xml:space="preserve">marks</t>
   </si>
   <si>
-    <t xml:space="preserve">P2</t>
+    <t xml:space="preserve">EEF305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
   </si>
   <si>
     <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
   </si>
 </sst>
 </file>
@@ -152,12 +164,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -165,11 +177,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -249,10 +261,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -282,13 +294,16 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>121212</v>
+      <c r="A2" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>1</v>
@@ -297,21 +312,24 @@
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="H2" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>121213</v>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>1</v>
@@ -320,19 +338,22 @@
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="92" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
